--- a/raw_data/HSE资源费用统计总表_202503.xlsx
+++ b/raw_data/HSE资源费用统计总表_202503.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Work_Station\Work_Platform\Resource_Cost_Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Work_Station\Work_Platform\A_Plan\Agent\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7443230D-9FCD-48F0-81A4-4188D817D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11625" tabRatio="739" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="739" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="费用统计" sheetId="9" r:id="rId1"/>
@@ -27,21 +28,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">前端运行数据统计!$A$1:$K$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">中端运行数据统计!$A$1:$K$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2202,7 +2192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -3125,7 +3115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3167,8 +3157,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4155,20 +4187,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="29">
     <cellStyle name="20% - 着色 4" xfId="1" builtinId="42"/>
-    <cellStyle name="20% - 着色 4 2" xfId="5"/>
-    <cellStyle name="20% - 着色 4 2 2" xfId="9"/>
-    <cellStyle name="20% - 着色 4 3" xfId="7"/>
-    <cellStyle name="20% - 着色 4 3 2" xfId="12"/>
+    <cellStyle name="20% - 着色 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 着色 4 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 着色 4 2 2 2" xfId="21" xr:uid="{DCF1F828-C7B8-4832-8559-3AFF5830A619}"/>
+    <cellStyle name="20% - 着色 4 2 3" xfId="28" xr:uid="{9DAD2977-26B1-4E41-A649-AD06D7D54994}"/>
+    <cellStyle name="20% - 着色 4 2 4" xfId="17" xr:uid="{F1BE9097-BE03-48C6-A399-39CE015795A2}"/>
+    <cellStyle name="20% - 着色 4 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 着色 4 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 着色 4 3 2 2" xfId="24" xr:uid="{4E0A55A5-BECA-4C58-898A-5A96416D34FE}"/>
+    <cellStyle name="20% - 着色 4 3 3" xfId="19" xr:uid="{61A23A7F-C5FB-4EFF-AE92-E8E885CC2859}"/>
+    <cellStyle name="20% - 着色 4 4" xfId="15" xr:uid="{7664BE04-3C29-451A-9F79-BD88551A01BA}"/>
     <cellStyle name="40% - 着色 1" xfId="3" builtinId="31"/>
-    <cellStyle name="40% - 着色 1 2" xfId="6"/>
-    <cellStyle name="40% - 着色 1 2 2" xfId="10"/>
-    <cellStyle name="40% - 着色 1 3" xfId="8"/>
-    <cellStyle name="40% - 着色 1 4" xfId="11"/>
+    <cellStyle name="40% - 着色 1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 着色 1 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 着色 1 2 2 2" xfId="22" xr:uid="{E14CB240-6F1D-464C-BEA5-79E4513E9DD3}"/>
+    <cellStyle name="40% - 着色 1 2 3" xfId="27" xr:uid="{37820E64-5F7E-47BE-970B-D9937A0BB68A}"/>
+    <cellStyle name="40% - 着色 1 2 4" xfId="18" xr:uid="{1A5C77F6-CE03-4A8E-AFB6-B1079034FE0E}"/>
+    <cellStyle name="40% - 着色 1 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 着色 1 3 2" xfId="20" xr:uid="{128D58AE-620B-4217-80FE-D3FC580709D0}"/>
+    <cellStyle name="40% - 着色 1 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 着色 1 4 2" xfId="23" xr:uid="{F162E60C-7125-449F-A855-6D729A87BE1E}"/>
+    <cellStyle name="40% - 着色 1 5" xfId="16" xr:uid="{9E8224A6-592B-4436-9565-EFBA539F9600}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="常规 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 2 2" xfId="26" xr:uid="{83518CB0-31D5-40AA-AFA1-F3F53EE4500A}"/>
+    <cellStyle name="常规 2 3" xfId="25" xr:uid="{6F450FF1-2850-4077-A623-6AB3B910EE81}"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="好" xfId="4" builtinId="26"/>
     <cellStyle name="着色 3" xfId="2" builtinId="37"/>
@@ -4186,21 +4244,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4276,11 +4334,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4306,11 +4364,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4390,6 +4448,76 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -4400,7 +4528,37 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4436,11 +4594,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4466,96 +4624,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4571,16 +4639,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4723,7 +4781,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5211,7 +5269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5709,7 +5767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6169,7 +6227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9198,11 +9256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9359,14 +9417,14 @@
       </c>
       <c r="E4" s="229">
         <f ca="1">(IF(K4="-",0,K4)*$D$40+IF(L4="-",0,L4)*$G$40+IF(M4="-",0,M4)*$J$40+IF(N4="-",0,N4)*$M$40)/($D$40+$G$40+$J$40+$M$40)*$C$40</f>
-        <v>20.838236646134042</v>
+        <v>42.489629013885569</v>
       </c>
       <c r="F4" s="230" t="s">
         <v>524</v>
       </c>
       <c r="G4" s="231">
         <f ca="1">SUM(D4,E4,IF(F4="-",0,F4))</f>
-        <v>24.253536646134041</v>
+        <v>45.904929013885571</v>
       </c>
       <c r="H4" s="232" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT("磁盘统计！F3")</f>
@@ -9385,7 +9443,7 @@
       </c>
       <c r="L4" s="244" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S3))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>0.62136586478166689</v>
       </c>
       <c r="M4" s="244" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R3))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9393,7 +9451,7 @@
       </c>
       <c r="N4" s="244" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q3))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>0.72553257178141406</v>
       </c>
       <c r="O4" s="161"/>
       <c r="P4" s="162"/>
@@ -9415,14 +9473,14 @@
       </c>
       <c r="E5" s="229">
         <f t="shared" ref="E5:E18" ca="1" si="0">(IF(K5="-",0,K5)*$D$40+IF(L5="-",0,L5)*$G$40+IF(M5="-",0,M5)*$J$40+IF(N5="-",0,N5)*$M$40)/($D$40+$G$40+$J$40+$M$40)*$C$40</f>
-        <v>1.0345223866875055</v>
+        <v>2.2549938931290594</v>
       </c>
       <c r="F5" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G5" s="235">
         <f t="shared" ref="G5:G25" ca="1" si="1">SUM(D5,E5,F5)</f>
-        <v>2.0341223866875056</v>
+        <v>3.2545938931290594</v>
       </c>
       <c r="H5" s="232" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT("磁盘统计！F7")</f>
@@ -9441,7 +9499,7 @@
       </c>
       <c r="L5" s="244" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S4))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>3.9904229848363927E-2</v>
       </c>
       <c r="M5" s="244" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R4))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9449,7 +9507,7 @@
       </c>
       <c r="N5" s="244" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q4))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>3.6019347535247506E-2</v>
       </c>
       <c r="O5" s="143"/>
       <c r="P5" s="143"/>
@@ -9473,14 +9531,14 @@
       </c>
       <c r="E6" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65766066010848578</v>
+        <v>1.1438226251230261</v>
       </c>
       <c r="F6" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G6" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0733606601084862</v>
+        <v>3.5595226251230265</v>
       </c>
       <c r="H6" s="232" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT("磁盘统计！F9")</f>
@@ -9499,7 +9557,7 @@
       </c>
       <c r="L6" s="244" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S5))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>1.9952114924181964E-2</v>
       </c>
       <c r="M6" s="244" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R5))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9507,7 +9565,7 @@
       </c>
       <c r="N6" s="244" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q5))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>1.0291242152927859E-2</v>
       </c>
       <c r="O6" s="143"/>
       <c r="P6" s="143"/>
@@ -9531,14 +9589,14 @@
       </c>
       <c r="E7" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4778891238392937</v>
+        <v>3.3957729196760211</v>
       </c>
       <c r="F7" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G7" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8094891238392936</v>
+        <v>7.7273729196760215</v>
       </c>
       <c r="H7" s="232" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT("磁盘统计！F15")</f>
@@ -9557,7 +9615,7 @@
       </c>
       <c r="L7" s="244" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S6))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>6.2706646904571881E-2</v>
       </c>
       <c r="M7" s="244" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R6))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9565,7 +9623,7 @@
       </c>
       <c r="N7" s="244" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q6))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>5.660183184110322E-2</v>
       </c>
       <c r="O7" s="143"/>
       <c r="P7" s="143"/>
@@ -9587,14 +9645,14 @@
       </c>
       <c r="E8" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83352946584536181</v>
+        <v>1.8168807938925564</v>
       </c>
       <c r="F8" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G8" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7081794658453617</v>
+        <v>2.6915307938925563</v>
       </c>
       <c r="H8" s="232" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT("磁盘统计！F22")</f>
@@ -9613,7 +9671,7 @@
       </c>
       <c r="L8" s="244" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S7))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>3.2151408049253219E-2</v>
       </c>
       <c r="M8" s="244" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R7))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9621,7 +9679,7 @@
       </c>
       <c r="N8" s="244" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q7))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>2.9021302871256562E-2</v>
       </c>
       <c r="O8" s="143"/>
       <c r="P8" s="143"/>
@@ -9643,14 +9701,14 @@
       </c>
       <c r="E9" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4584903925714808E-2</v>
+        <v>0.28888672903310025</v>
       </c>
       <c r="F9" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G9" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6356349039257148</v>
+        <v>1.8299367290331003</v>
       </c>
       <c r="H9" s="232" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT("磁盘统计！F25")</f>
@@ -9669,7 +9727,7 @@
       </c>
       <c r="L9" s="244" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S8))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>3.6483867289932733E-3</v>
       </c>
       <c r="M9" s="244" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R8))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9677,7 +9735,7 @@
       </c>
       <c r="N9" s="244" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q8))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>8.4388185654008432E-3</v>
       </c>
       <c r="O9" s="143"/>
       <c r="P9" s="143"/>
@@ -9699,14 +9757,14 @@
       </c>
       <c r="E10" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59115564953571753</v>
+        <v>1.2885679389308911</v>
       </c>
       <c r="F10" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G10" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5074556495357174</v>
+        <v>2.2048679389308909</v>
       </c>
       <c r="H10" s="232" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT("磁盘统计！F27")</f>
@@ -9725,7 +9783,7 @@
       </c>
       <c r="L10" s="244" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S9))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>2.2802417056207957E-2</v>
       </c>
       <c r="M10" s="244" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R9))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9733,7 +9791,7 @@
       </c>
       <c r="N10" s="244" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q9))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>2.0582484305855717E-2</v>
       </c>
       <c r="O10" s="143"/>
       <c r="P10" s="143"/>
@@ -9755,14 +9813,14 @@
       </c>
       <c r="E11" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37686172657901995</v>
+        <v>1.0760175466976813</v>
       </c>
       <c r="F11" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G11" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54346172657901992</v>
+        <v>1.2426175466976814</v>
       </c>
       <c r="H11" s="232" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDIRECT("磁盘统计！F30")</f>
@@ -9781,7 +9839,7 @@
       </c>
       <c r="L11" s="244" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S10))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>2.2859423098848478E-2</v>
       </c>
       <c r="M11" s="244" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R10))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9789,7 +9847,7 @@
       </c>
       <c r="N11" s="244" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q10))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>2.0633940516620358E-2</v>
       </c>
       <c r="O11" s="143"/>
       <c r="P11" s="143"/>
@@ -9811,14 +9869,14 @@
       </c>
       <c r="E12" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73894456191964686</v>
+        <v>1.6107099236636138</v>
       </c>
       <c r="F12" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G12" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5719445619196468</v>
+        <v>2.4437099236636137</v>
       </c>
       <c r="H12" s="232" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT("磁盘统计！F31")</f>
@@ -9837,7 +9895,7 @@
       </c>
       <c r="L12" s="244" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S11))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>2.8503021320259947E-2</v>
       </c>
       <c r="M12" s="244" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R11))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9845,7 +9903,7 @@
       </c>
       <c r="N12" s="244" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q11))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>2.5728105382319646E-2</v>
       </c>
       <c r="O12" s="143"/>
       <c r="P12" s="143"/>
@@ -9869,14 +9927,14 @@
       </c>
       <c r="E13" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82170635285464744</v>
+        <v>1.7911094351139387</v>
       </c>
       <c r="F13" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G13" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1533063528546474</v>
+        <v>6.1227094351139382</v>
       </c>
       <c r="H13" s="232" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDIRECT("磁盘统计！F33")</f>
@@ -9895,7 +9953,7 @@
       </c>
       <c r="L13" s="244" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S12))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>3.1695359708129062E-2</v>
       </c>
       <c r="M13" s="244" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R12))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9903,7 +9961,7 @@
       </c>
       <c r="N13" s="244" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q12))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>2.8609653185139448E-2</v>
       </c>
       <c r="O13" s="143"/>
       <c r="P13" s="143"/>
@@ -9927,14 +9985,14 @@
       </c>
       <c r="E14" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14778891238392938</v>
+        <v>0.32214198473272276</v>
       </c>
       <c r="F14" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G14" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0640889123839294</v>
+        <v>1.2384419847327228</v>
       </c>
       <c r="H14" s="232" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDIRECT("磁盘统计！F38")</f>
@@ -9953,7 +10011,7 @@
       </c>
       <c r="L14" s="244" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S13))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>5.7006042640519892E-3</v>
       </c>
       <c r="M14" s="244" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R13))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -9961,7 +10019,7 @@
       </c>
       <c r="N14" s="244" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q13))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>5.1456210764639293E-3</v>
       </c>
       <c r="O14" s="143"/>
       <c r="P14" s="143"/>
@@ -9983,14 +10041,14 @@
       </c>
       <c r="E15" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14778891238392938</v>
+        <v>0.32214198473272276</v>
       </c>
       <c r="F15" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G15" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14778891238392938</v>
+        <v>0.32214198473272276</v>
       </c>
       <c r="H15" s="232" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT("磁盘统计！F40")</f>
@@ -10009,7 +10067,7 @@
       </c>
       <c r="L15" s="244" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDIRECT("前端运行数据统计!S" &amp; ROW(S14))/MAX(INDIRECT("前端运行数据统计！S60"),1)</f>
-        <v>0</v>
+        <v>5.7006042640519892E-3</v>
       </c>
       <c r="M15" s="244" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDIRECT("前端运行数据统计!R" &amp; ROW(R14))/MAX(INDIRECT("前端运行数据统计！R60"),1)</f>
@@ -10017,7 +10075,7 @@
       </c>
       <c r="N15" s="244" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDIRECT("前端运行数据统计!Q" &amp; ROW(Q14))/MAX(INDIRECT("前端运行数据统计！Q60"),1)</f>
-        <v>0</v>
+        <v>5.1456210764639293E-3</v>
       </c>
       <c r="O15" s="143"/>
       <c r="P15" s="143"/>
@@ -10197,14 +10255,14 @@
       </c>
       <c r="E19" s="236">
         <f ca="1">(IF(K19="-",0,K19)*$D$41+IF(L19="-",0,L19)*$G$41+IF(M19="-",0,M19)*$J$41+IF(N19="-",0,N19)*$M$41)/($D$41+$G$41+$J$41+$M$41)*$C$41</f>
-        <v>2.2945736434108528</v>
+        <v>4.1730816088753393</v>
       </c>
       <c r="F19" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G19" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>15.122773643410854</v>
+        <v>17.001281608875338</v>
       </c>
       <c r="H19" s="232" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDIRECT("磁盘统计！F45")</f>
@@ -10223,7 +10281,7 @@
       </c>
       <c r="L19" s="245" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDIRECT("中端运行数据统计！S" &amp; ROW(S3))/MAX(INDIRECT("中端运行数据统计！S54"),1)</f>
-        <v>0</v>
+        <v>0.21080368906455862</v>
       </c>
       <c r="M19" s="245" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDIRECT("中端运行数据统计！R" &amp; ROW(R3))/MAX(INDIRECT("中端运行数据统计！R54"),1)</f>
@@ -10231,7 +10289,7 @@
       </c>
       <c r="N19" s="245" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">INDIRECT("中端运行数据统计！Q" &amp; ROW(Q3))/MAX(INDIRECT("中端运行数据统计！Q54"),1)</f>
-        <v>0</v>
+        <v>0.19536019536019536</v>
       </c>
       <c r="O19" s="143"/>
       <c r="P19" s="143"/>
@@ -10255,14 +10313,14 @@
       </c>
       <c r="E20" s="236">
         <f t="shared" ref="E20:E23" ca="1" si="3">(IF(K20="-",0,K20)*$D$41+IF(L20="-",0,L20)*$G$41+IF(M20="-",0,M20)*$J$41+IF(N20="-",0,N20)*$M$41)/($D$41+$G$41+$J$41+$M$41)*$C$41</f>
-        <v>5.7364341085271313</v>
+        <v>11.606771500603655</v>
       </c>
       <c r="F20" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G20" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>12.983534108527131</v>
+        <v>18.853871500603653</v>
       </c>
       <c r="H20" s="232" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDIRECT("磁盘统计！F59")</f>
@@ -10281,7 +10339,7 @@
       </c>
       <c r="L20" s="245" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDIRECT("中端运行数据统计！S" &amp; ROW(S4))/MAX(INDIRECT("中端运行数据统计！S54"),1)</f>
-        <v>0</v>
+        <v>0.65876152832674562</v>
       </c>
       <c r="M20" s="245" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDIRECT("中端运行数据统计！R" &amp; ROW(R4))/MAX(INDIRECT("中端运行数据统计！R54"),1)</f>
@@ -10289,7 +10347,7 @@
       </c>
       <c r="N20" s="245" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDIRECT("中端运行数据统计！Q" &amp; ROW(Q4))/MAX(INDIRECT("中端运行数据统计！Q54"),1)</f>
-        <v>0</v>
+        <v>0.61050061050061044</v>
       </c>
       <c r="O20" s="143"/>
       <c r="P20" s="143"/>
@@ -10313,14 +10371,14 @@
       </c>
       <c r="E21" s="236">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21511627906976744</v>
+        <v>0.91955676611895021</v>
       </c>
       <c r="F21" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G21" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3785162790697676</v>
+        <v>9.082956766118949</v>
       </c>
       <c r="H21" s="232" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDIRECT("磁盘统计！F61")</f>
@@ -10339,7 +10397,7 @@
       </c>
       <c r="L21" s="245" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDIRECT("中端运行数据统计！S" &amp; ROW(S5))/MAX(INDIRECT("中端运行数据统计！S54"),1)</f>
-        <v>0</v>
+        <v>7.9051383399209474E-2</v>
       </c>
       <c r="M21" s="245" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDIRECT("中端运行数据统计！R" &amp; ROW(R5))/MAX(INDIRECT("中端运行数据统计！R54"),1)</f>
@@ -10347,7 +10405,7 @@
       </c>
       <c r="N21" s="245" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDIRECT("中端运行数据统计！Q" &amp; ROW(Q5))/MAX(INDIRECT("中端运行数据统计！Q54"),1)</f>
-        <v>0</v>
+        <v>7.326007326007325E-2</v>
       </c>
       <c r="O21" s="143"/>
       <c r="P21" s="143"/>
@@ -10369,14 +10427,14 @@
       </c>
       <c r="E22" s="236">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43023255813953487</v>
+        <v>0.78245280166412612</v>
       </c>
       <c r="F22" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G22" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4298325581395348</v>
+        <v>1.7820528016641262</v>
       </c>
       <c r="H22" s="232" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDIRECT("磁盘统计！F72")</f>
@@ -10395,7 +10453,7 @@
       </c>
       <c r="L22" s="245" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDIRECT("中端运行数据统计！S" &amp; ROW(S6))/MAX(INDIRECT("中端运行数据统计！S54"),1)</f>
-        <v>0</v>
+        <v>3.9525691699604737E-2</v>
       </c>
       <c r="M22" s="245" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDIRECT("中端运行数据统计！R" &amp; ROW(R6))/MAX(INDIRECT("中端运行数据统计！R54"),1)</f>
@@ -10403,7 +10461,7 @@
       </c>
       <c r="N22" s="245" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDIRECT("中端运行数据统计！Q" &amp; ROW(Q6))/MAX(INDIRECT("中端运行数据统计！Q54"),1)</f>
-        <v>0</v>
+        <v>3.6630036630036625E-2</v>
       </c>
       <c r="O22" s="143"/>
       <c r="P22" s="143"/>
@@ -10425,14 +10483,14 @@
       </c>
       <c r="E23" s="236">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5736434108527132</v>
+        <v>1.0432704022188348</v>
       </c>
       <c r="F23" s="234" t="s">
         <v>524</v>
       </c>
       <c r="G23" s="235">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2400434108527132</v>
+        <v>1.7096704022188347</v>
       </c>
       <c r="H23" s="232" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDIRECT("磁盘统计！F73")</f>
@@ -10451,7 +10509,7 @@
       </c>
       <c r="L23" s="245" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDIRECT("中端运行数据统计！S" &amp; ROW(S7))/MAX(INDIRECT("中端运行数据统计！S54"),1)</f>
-        <v>0</v>
+        <v>5.2700922266139656E-2</v>
       </c>
       <c r="M23" s="245" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDIRECT("中端运行数据统计！R" &amp; ROW(R7))/MAX(INDIRECT("中端运行数据统计！R54"),1)</f>
@@ -10459,7 +10517,7 @@
       </c>
       <c r="N23" s="245" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">INDIRECT("中端运行数据统计！Q" &amp; ROW(Q7))/MAX(INDIRECT("中端运行数据统计！Q54"),1)</f>
-        <v>0</v>
+        <v>4.884004884004884E-2</v>
       </c>
       <c r="O23" s="143"/>
       <c r="P23" s="143"/>
@@ -10585,7 +10643,7 @@
       </c>
       <c r="E26" s="242">
         <f t="shared" ref="E26:K26" ca="1" si="4">SUM(E4:E25)</f>
-        <v>57.410669302197306</v>
+        <v>96.72580786809182</v>
       </c>
       <c r="F26" s="242">
         <f t="shared" si="4"/>
@@ -10593,7 +10651,7 @@
       </c>
       <c r="G26" s="242">
         <f t="shared" ca="1" si="4"/>
-        <v>137.93677930219729</v>
+        <v>177.25191786809179</v>
       </c>
       <c r="H26" s="243">
         <f t="shared" ca="1" si="4"/>
@@ -10610,7 +10668,7 @@
       </c>
       <c r="L26" s="247">
         <f t="shared" ref="L26" ca="1" si="5">SUM(L4:L25)</f>
-        <v>0</v>
+        <v>1.9378332957048385</v>
       </c>
       <c r="M26" s="247">
         <f t="shared" ref="M26" ca="1" si="6">SUM(M4:M25)</f>
@@ -10618,7 +10676,7 @@
       </c>
       <c r="N26" s="248">
         <f t="shared" ref="N26" ca="1" si="7">SUM(N4:N25)</f>
-        <v>0</v>
+        <v>1.9363415048811776</v>
       </c>
       <c r="O26" s="221"/>
       <c r="P26" s="221"/>
@@ -11511,10 +11569,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" location="费用统计!A50" display="公式1"/>
-    <hyperlink ref="E3" location="费用统计!A51" display="公式2"/>
-    <hyperlink ref="F3" location="费用统计!A52" display="公式3"/>
-    <hyperlink ref="G3" location="费用统计!A53" display="公式4"/>
+    <hyperlink ref="D3" location="费用统计!A50" display="公式1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" location="费用统计!A51" display="公式2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" location="费用统计!A52" display="公式3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G3" location="费用统计!A53" display="公式4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11522,10 +11580,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="AI1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -12992,71 +13050,71 @@
     <cfRule type="cellIs" dxfId="41" priority="120" operator="greaterThan">
       <formula>0.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="121" operator="greaterThan">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="118" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="117" operator="between">
       <formula>50</formula>
       <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="115" operator="lessThan">
+      <formula>0.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="116" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="111" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="113" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="112" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="114" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="113" operator="lessThan">
       <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="112" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="121" operator="greaterThan">
+      <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="cellIs" dxfId="31" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
+      <formula>"&lt;50%"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
       <formula>"&gt;70%"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="59" operator="equal">
+      <formula>"[50%, 70%]"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
       <formula>"&lt;50%"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="62" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="63" operator="equal">
       <formula>"[50%, 70%]"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="65" operator="equal">
+    <cfRule type="containsText" dxfId="25" priority="64" operator="containsText" text="50%,70%">
+      <formula>NOT(ISERROR(SEARCH("50%,70%",M14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="65" operator="equal">
       <formula>"&lt;50%"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="66" operator="equal">
       <formula>"&gt;70%"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="64" operator="containsText" text="50%,70%">
-      <formula>NOT(ISERROR(SEARCH("50%,70%",M14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
       <formula>"[50%, 70%]"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="62" operator="greaterThan">
-      <formula>0.7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="59" operator="equal">
-      <formula>"[50%, 70%]"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="61" operator="equal">
       <formula>"&gt;70%"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="60" operator="equal">
-      <formula>"&lt;50%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4">
@@ -13091,8 +13149,8 @@
     <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
-      <formula>70</formula>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
+      <formula>0.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
       <formula>0.75</formula>
@@ -13100,8 +13158,8 @@
     <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
-      <formula>0.5</formula>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+      <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4">
@@ -13142,15 +13200,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AU11">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>0.5</formula>
+      <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>50</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
-      <formula>0.5</formula>
-      <formula>0.7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
@@ -13160,7 +13218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15080,11 +15138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15142,11 +15200,15 @@
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("前端资源分配！M11")</f>
         <v>0.64815666084398271</v>
       </c>
-      <c r="Q3" s="45"/>
+      <c r="Q3" s="45">
+        <v>0.72553257178141406</v>
+      </c>
       <c r="R3" s="45">
         <v>0.64815666084398271</v>
       </c>
-      <c r="S3" s="45"/>
+      <c r="S3" s="45">
+        <v>0.62136586478166689</v>
+      </c>
       <c r="T3" s="45">
         <v>0.64815666084398271</v>
       </c>
@@ -15160,11 +15222,15 @@
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("前端资源分配！M7")</f>
         <v>3.2177990254665806E-2</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="45">
+        <v>3.6019347535247506E-2</v>
+      </c>
       <c r="R4" s="45">
         <v>3.2177990254665806E-2</v>
       </c>
-      <c r="S4" s="45"/>
+      <c r="S4" s="45">
+        <v>3.9904229848363927E-2</v>
+      </c>
       <c r="T4" s="45">
         <v>3.2177990254665806E-2</v>
       </c>
@@ -15178,11 +15244,15 @@
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("前端资源分配！M3")</f>
         <v>2.0456008090466122E-2</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="45">
+        <v>1.0291242152927859E-2</v>
+      </c>
       <c r="R5" s="45">
         <v>2.0456008090466122E-2</v>
       </c>
-      <c r="S5" s="45"/>
+      <c r="S5" s="45">
+        <v>1.9952114924181964E-2</v>
+      </c>
       <c r="T5" s="45">
         <v>2.0456008090466122E-2</v>
       </c>
@@ -15196,11 +15266,15 @@
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("前端资源分配！M23")</f>
         <v>4.5968557506665439E-2</v>
       </c>
-      <c r="Q6" s="45"/>
+      <c r="Q6" s="45">
+        <v>5.660183184110322E-2</v>
+      </c>
       <c r="R6" s="45">
         <v>4.5968557506665439E-2</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="45">
+        <v>6.2706646904571881E-2</v>
+      </c>
       <c r="T6" s="45">
         <v>4.5968557506665439E-2</v>
       </c>
@@ -15214,11 +15288,15 @@
         <f ca="1">INDIRECT("前端资源分配！M21")</f>
         <v>2.592626643375931E-2</v>
       </c>
-      <c r="Q7" s="45"/>
+      <c r="Q7" s="45">
+        <v>2.9021302871256562E-2</v>
+      </c>
       <c r="R7" s="45">
         <v>2.592626643375931E-2</v>
       </c>
-      <c r="S7" s="45"/>
+      <c r="S7" s="45">
+        <v>3.2151408049253219E-2</v>
+      </c>
       <c r="T7" s="45">
         <v>2.592626643375931E-2</v>
       </c>
@@ -15232,11 +15310,15 @@
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT("前端资源分配！M33")</f>
         <v>2.9419876804265884E-3</v>
       </c>
-      <c r="Q8" s="45"/>
+      <c r="Q8" s="45">
+        <v>8.4388185654008432E-3</v>
+      </c>
       <c r="R8" s="45">
         <v>2.9419876804265884E-3</v>
       </c>
-      <c r="S8" s="45"/>
+      <c r="S8" s="45">
+        <v>3.6483867289932733E-3</v>
+      </c>
       <c r="T8" s="45">
         <v>2.9419876804265884E-3</v>
       </c>
@@ -15250,11 +15332,15 @@
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("前端资源分配！M27")</f>
         <v>1.8387423002666176E-2</v>
       </c>
-      <c r="Q9" s="45"/>
+      <c r="Q9" s="45">
+        <v>2.0582484305855717E-2</v>
+      </c>
       <c r="R9" s="45">
         <v>1.8387423002666176E-2</v>
       </c>
-      <c r="S9" s="45"/>
+      <c r="S9" s="45">
+        <v>2.2802417056207957E-2</v>
+      </c>
       <c r="T9" s="45">
         <v>1.8387423002666176E-2</v>
       </c>
@@ -15268,11 +15354,15 @@
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT("前端资源分配！M36")</f>
         <v>1.1721982164199687E-2</v>
       </c>
-      <c r="Q10" s="45"/>
+      <c r="Q10" s="45">
+        <v>2.0633940516620358E-2</v>
+      </c>
       <c r="R10" s="45">
         <v>1.1721982164199687E-2</v>
       </c>
-      <c r="S10" s="45"/>
+      <c r="S10" s="45">
+        <v>2.2859423098848478E-2</v>
+      </c>
       <c r="T10" s="45">
         <v>1.1721982164199687E-2</v>
       </c>
@@ -15286,11 +15376,15 @@
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT("前端资源分配！M39")</f>
         <v>2.2984278753332719E-2</v>
       </c>
-      <c r="Q11" s="45"/>
+      <c r="Q11" s="45">
+        <v>2.5728105382319646E-2</v>
+      </c>
       <c r="R11" s="45">
         <v>2.2984278753332719E-2</v>
       </c>
-      <c r="S11" s="45"/>
+      <c r="S11" s="45">
+        <v>2.8503021320259947E-2</v>
+      </c>
       <c r="T11" s="45">
         <v>2.2984278753332719E-2</v>
       </c>
@@ -15304,11 +15398,15 @@
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT("前端资源分配！M46")</f>
         <v>2.5558517973705987E-2</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="45">
+        <v>2.8609653185139448E-2</v>
+      </c>
       <c r="R12" s="45">
         <v>2.5558517973705987E-2</v>
       </c>
-      <c r="S12" s="45"/>
+      <c r="S12" s="45">
+        <v>3.1695359708129062E-2</v>
+      </c>
       <c r="T12" s="45">
         <v>2.5558517973705987E-2</v>
       </c>
@@ -15322,11 +15420,15 @@
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT("前端资源分配！M44")</f>
         <v>4.5968557506665441E-3</v>
       </c>
-      <c r="Q13" s="45"/>
+      <c r="Q13" s="45">
+        <v>5.1456210764639293E-3</v>
+      </c>
       <c r="R13" s="45">
         <v>4.5968557506665441E-3</v>
       </c>
-      <c r="S13" s="45"/>
+      <c r="S13" s="45">
+        <v>5.7006042640519892E-3</v>
+      </c>
       <c r="T13" s="45">
         <v>4.5968557506665441E-3</v>
       </c>
@@ -15340,11 +15442,15 @@
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT("前端资源分配！M45")</f>
         <v>4.5968557506665441E-3</v>
       </c>
-      <c r="Q14" s="45"/>
+      <c r="Q14" s="45">
+        <v>5.1456210764639293E-3</v>
+      </c>
       <c r="R14" s="45">
         <v>4.5968557506665441E-3</v>
       </c>
-      <c r="S14" s="45"/>
+      <c r="S14" s="45">
+        <v>5.7006042640519892E-3</v>
+      </c>
       <c r="T14" s="45">
         <v>4.5968557506665441E-3</v>
       </c>
@@ -15369,11 +15475,15 @@
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("前端资源分配！N11")</f>
         <v>0.86808510638297887</v>
       </c>
-      <c r="Q16" s="45"/>
+      <c r="Q16" s="45">
+        <v>0.8947588652482269</v>
+      </c>
       <c r="R16" s="45">
         <v>0.86808510638297887</v>
       </c>
-      <c r="S16" s="45"/>
+      <c r="S16" s="45">
+        <v>0.67515596330275229</v>
+      </c>
       <c r="T16" s="45">
         <v>0.86808510638297887</v>
       </c>
@@ -15387,11 +15497,15 @@
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("前端资源分配！N7")</f>
         <v>0.48642857142857149</v>
       </c>
-      <c r="Q17" s="45"/>
+      <c r="Q17" s="45">
+        <v>0.37528571428571428</v>
+      </c>
       <c r="R17" s="45">
         <v>0.48642857142857149</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="45">
+        <v>0.16928571428571429</v>
+      </c>
       <c r="T17" s="45">
         <v>0.48642857142857149</v>
       </c>
@@ -15405,11 +15519,15 @@
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("前端资源分配！N3")</f>
         <v>0.64950561797752815</v>
       </c>
-      <c r="Q18" s="45"/>
+      <c r="Q18" s="45">
+        <v>0.59275</v>
+      </c>
       <c r="R18" s="45">
         <v>0.64950561797752815</v>
       </c>
-      <c r="S18" s="45"/>
+      <c r="S18" s="45">
+        <v>0.86897142857142851</v>
+      </c>
       <c r="T18" s="45">
         <v>0.64950561797752815</v>
       </c>
@@ -15423,11 +15541,15 @@
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("前端资源分配！N23")</f>
         <v>0.81940000000000002</v>
       </c>
-      <c r="Q19" s="45"/>
+      <c r="Q19" s="45">
+        <v>0.32229090909090907</v>
+      </c>
       <c r="R19" s="45">
         <v>0.81940000000000002</v>
       </c>
-      <c r="S19" s="45"/>
+      <c r="S19" s="45">
+        <v>0.34870000000000007</v>
+      </c>
       <c r="T19" s="45">
         <v>0.81940000000000002</v>
       </c>
@@ -15441,11 +15563,15 @@
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("前端资源分配！N21")</f>
         <v>0.37558156028368794</v>
       </c>
-      <c r="Q20" s="45"/>
+      <c r="Q20" s="45">
+        <v>0.34329078014184394</v>
+      </c>
       <c r="R20" s="45">
         <v>0.37558156028368794</v>
       </c>
-      <c r="S20" s="45"/>
+      <c r="S20" s="45">
+        <v>0.27728368794326241</v>
+      </c>
       <c r="T20" s="45">
         <v>0.37558156028368794</v>
       </c>
@@ -15459,11 +15585,15 @@
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT("前端资源分配！N33")</f>
         <v>0.20100000000000001</v>
       </c>
-      <c r="Q21" s="45"/>
+      <c r="Q21" s="45">
+        <v>0.33629268292682929</v>
+      </c>
       <c r="R21" s="45">
         <v>0.20100000000000001</v>
       </c>
-      <c r="S21" s="45"/>
+      <c r="S21" s="45">
+        <v>0.62522695035460996</v>
+      </c>
       <c r="T21" s="45">
         <v>0.20100000000000001</v>
       </c>
@@ -15477,11 +15607,15 @@
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT("前端资源分配！N27")</f>
         <v>0.16625000000000001</v>
       </c>
-      <c r="Q22" s="45"/>
+      <c r="Q22" s="45">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="R22" s="45">
         <v>0.16625000000000001</v>
       </c>
-      <c r="S22" s="45"/>
+      <c r="S22" s="45">
+        <v>9.6250000000000002E-2</v>
+      </c>
       <c r="T22" s="45">
         <v>0.16625000000000001</v>
       </c>
@@ -15495,11 +15629,15 @@
         <f t="array" aca="1" ref="P23" ca="1">INDIRECT("前端资源分配！N36")</f>
         <v>0.40303921568627454</v>
       </c>
-      <c r="Q23" s="45"/>
+      <c r="Q23" s="45">
+        <v>0.31496259351620942</v>
+      </c>
       <c r="R23" s="45">
         <v>0.40303921568627454</v>
       </c>
-      <c r="S23" s="45"/>
+      <c r="S23" s="45">
+        <v>0.46508728179551123</v>
+      </c>
       <c r="T23" s="45">
         <v>0.40303921568627454</v>
       </c>
@@ -15513,11 +15651,15 @@
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT("前端资源分配！N39")</f>
         <v>0.30930000000000002</v>
       </c>
-      <c r="Q24" s="45"/>
+      <c r="Q24" s="45">
+        <v>0.1489</v>
+      </c>
       <c r="R24" s="45">
         <v>0.30930000000000002</v>
       </c>
-      <c r="S24" s="45"/>
+      <c r="S24" s="45">
+        <v>0.1401</v>
+      </c>
       <c r="T24" s="45">
         <v>0.30930000000000002</v>
       </c>
@@ -15531,11 +15673,15 @@
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT("前端资源分配！N46")</f>
         <v>0.2331007194244604</v>
       </c>
-      <c r="Q25" s="45"/>
+      <c r="Q25" s="45">
+        <v>0.27154676258992805</v>
+      </c>
       <c r="R25" s="45">
         <v>0.2331007194244604</v>
       </c>
-      <c r="S25" s="45"/>
+      <c r="S25" s="45">
+        <v>0.16937410071942446</v>
+      </c>
       <c r="T25" s="45">
         <v>0.2331007194244604</v>
       </c>
@@ -15549,11 +15695,15 @@
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT("前端资源分配！N44")</f>
         <v>0.38</v>
       </c>
-      <c r="Q26" s="45"/>
+      <c r="Q26" s="45">
+        <v>0.254</v>
+      </c>
       <c r="R26" s="45">
         <v>0.38</v>
       </c>
-      <c r="S26" s="45"/>
+      <c r="S26" s="45">
+        <v>0.19699999999999998</v>
+      </c>
       <c r="T26" s="45">
         <v>0.38</v>
       </c>
@@ -15567,11 +15717,15 @@
         <f t="array" aca="1" ref="P27" ca="1">INDIRECT("前端资源分配！N45")</f>
         <v>4.1000000000000009E-2</v>
       </c>
-      <c r="Q27" s="45"/>
+      <c r="Q27" s="45">
+        <v>5.8999999999999997E-2</v>
+      </c>
       <c r="R27" s="45">
         <v>4.1000000000000009E-2</v>
       </c>
-      <c r="S27" s="45"/>
+      <c r="S27" s="45">
+        <v>6.0999999999999999E-2</v>
+      </c>
       <c r="T27" s="45">
         <v>4.1000000000000009E-2</v>
       </c>
@@ -16258,7 +16412,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="N17:T27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N17:T27">
     <sortCondition descending="1" ref="P16:P27"/>
   </sortState>
   <mergeCells count="1">
@@ -16272,7 +16426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -17131,11 +17285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17191,11 +17345,15 @@
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("中端和后端资源分配！M4")</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="Q3" s="45"/>
+      <c r="Q3" s="358">
+        <v>0.19536019536019536</v>
+      </c>
       <c r="R3" s="45">
         <v>0.35555555555555557</v>
       </c>
-      <c r="S3" s="45"/>
+      <c r="S3" s="359">
+        <v>0.21080368906455862</v>
+      </c>
       <c r="T3" s="45">
         <v>0.35555555555555557</v>
       </c>
@@ -17209,11 +17367,15 @@
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT("中端和后端资源分配！M7")</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="358">
+        <v>0.61050061050061044</v>
+      </c>
       <c r="R4" s="45">
         <v>0.88888888888888884</v>
       </c>
-      <c r="S4" s="45"/>
+      <c r="S4" s="359">
+        <v>0.65876152832674562</v>
+      </c>
       <c r="T4" s="45">
         <v>0.88888888888888884</v>
       </c>
@@ -17227,11 +17389,15 @@
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT("中端和后端资源分配！M8")</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="358">
+        <v>7.326007326007325E-2</v>
+      </c>
       <c r="R5" s="45">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="S5" s="45"/>
+      <c r="S5" s="359">
+        <v>7.9051383399209474E-2</v>
+      </c>
       <c r="T5" s="45">
         <v>3.3333333333333333E-2</v>
       </c>
@@ -17245,11 +17411,15 @@
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT("中端和后端资源分配！M9")</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="Q6" s="45"/>
+      <c r="Q6" s="358">
+        <v>3.6630036630036625E-2</v>
+      </c>
       <c r="R6" s="45">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="359">
+        <v>3.9525691699604737E-2</v>
+      </c>
       <c r="T6" s="45">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -17263,11 +17433,15 @@
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT("中端和后端资源分配！M10")</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="Q7" s="45"/>
+      <c r="Q7" s="358">
+        <v>4.884004884004884E-2</v>
+      </c>
       <c r="R7" s="45">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="S7" s="45"/>
+      <c r="S7" s="359">
+        <v>5.2700922266139656E-2</v>
+      </c>
       <c r="T7" s="45">
         <v>8.8888888888888892E-2</v>
       </c>
@@ -17355,11 +17529,15 @@
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT("中端和后端资源分配！N4")</f>
         <v>0.23625000000000002</v>
       </c>
-      <c r="Q16" s="45"/>
+      <c r="Q16" s="360">
+        <v>0.21775</v>
+      </c>
       <c r="R16" s="45">
         <v>0.23625000000000002</v>
       </c>
-      <c r="S16" s="45"/>
+      <c r="S16" s="361">
+        <v>0.27725</v>
+      </c>
       <c r="T16" s="45">
         <v>0.23625000000000002</v>
       </c>
@@ -17373,11 +17551,15 @@
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT("中端和后端资源分配！N7")</f>
         <v>0.11200000000000002</v>
       </c>
-      <c r="Q17" s="45"/>
+      <c r="Q17" s="360">
+        <v>0.19900000000000001</v>
+      </c>
       <c r="R17" s="45">
         <v>0.11200000000000002</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="361">
+        <v>8.2000000000000017E-2</v>
+      </c>
       <c r="T17" s="45">
         <v>0.11200000000000002</v>
       </c>
@@ -17391,11 +17573,15 @@
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT("中端和后端资源分配！N8")</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="45"/>
+      <c r="Q18" s="360">
+        <v>0.40500000000000003</v>
+      </c>
       <c r="R18" s="45">
         <v>0</v>
       </c>
-      <c r="S18" s="45"/>
+      <c r="S18" s="361">
+        <v>0.17699999999999996</v>
+      </c>
       <c r="T18" s="45">
         <v>0</v>
       </c>
@@ -17409,11 +17595,15 @@
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT("中端和后端资源分配！N9")</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q19" s="45"/>
+      <c r="Q19" s="360">
+        <v>0.06</v>
+      </c>
       <c r="R19" s="45">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="S19" s="45"/>
+      <c r="S19" s="361">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="T19" s="45">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -17427,11 +17617,15 @@
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT("中端和后端资源分配！N10")</f>
         <v>3.9E-2</v>
       </c>
-      <c r="Q20" s="45"/>
+      <c r="Q20" s="360">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="R20" s="45">
         <v>3.9E-2</v>
       </c>
-      <c r="S20" s="45"/>
+      <c r="S20" s="361">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="T20" s="45">
         <v>3.9E-2</v>
       </c>
@@ -18145,7 +18339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22157,7 +22351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
